--- a/data/trans_dic/P69_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,7 +735,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,84; 100,0</t>
+          <t>89,88; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,53; 100,0</t>
+          <t>93,67; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>94,3; 100,0</t>
+          <t>91,92; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,39; 100,0</t>
+          <t>96,51; 100,0</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,5; 100,0</t>
+          <t>83,87; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,37; 100,0</t>
+          <t>90,07; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,24; 100,0</t>
+          <t>91,54; 100,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,56; 100,0</t>
+          <t>93,71; 100,0</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,96; 100,0</t>
+          <t>93,8; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,42; 100,0</t>
+          <t>93,85; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1039,12 +1040,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,47; 100,0</t>
+          <t>87,59; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,06; 100,0</t>
+          <t>95,09; 100,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>97,06; 100,0</t>
+          <t>97,09; 100,0</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,41; 100,0</t>
+          <t>97,47; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1159,7 +1160,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,43; 100,0</t>
+          <t>95,4; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,27 +1180,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,26; 99,31</t>
+          <t>94,07; 99,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>97,97; 100,0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>98,93; 100</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
           <t>97,92; 100,0</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>98,93; 100</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>97,82; 100,0</t>
-        </is>
-      </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,27; 99,39</t>
+          <t>95,9; 99,32</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>92,75; 100,0</t>
+          <t>91,59; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,7 +1295,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,36; 100,0</t>
+          <t>92,78; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1314,7 +1315,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,34; 100,0</t>
+          <t>89,28; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,7 +1325,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>96,01; 100,0</t>
+          <t>96,49; 100,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,7 +1335,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>94,37; 100,0</t>
+          <t>94,34; 100,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,79</t>
+          <t>98,09; 99,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100,0</t>
+          <t>98,66; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,7</t>
+          <t>97,47; 99,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>97,71; 99,79</t>
+          <t>97,9; 99,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,32 +1595,32 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,18; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>97,74; 99,65</t>
+          <t>97,71; 99,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>98,62; 99,85</t>
+          <t>98,58; 99,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>99,19; 100,0</t>
+          <t>99,15; 100,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,66</t>
+          <t>97,88; 99,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>98,28; 99,59</t>
+          <t>98,27; 99,58</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que considera que tiene problemas de salud a causa del trabajo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>65083</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55458</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45876</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45816</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>46650</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43869</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45934</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>58555</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>111733</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>99328</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>91810</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>104371</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>63136; 65083</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53493; 55458</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42166; 46911</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>43991; 45816</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>44752; 46650</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41919; 43869</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43939; 45934</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>55538; 59290</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>109786; 111733</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>97345; 99328</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>85342; 92845</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>101442; 105106</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42355</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37301</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29285</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>49798</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>41616</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26614</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29394</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42158</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83970</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63915</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>58680</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91956</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40332; 42355</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35323; 37301</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25360; 30236</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>45737; 50779</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>39723; 41616</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24504; 26614</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27462; 29394</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40813; 42158</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>81984; 83970</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>61842; 63915</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>54584; 59631</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>87091; 92937</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>98209</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>79622</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>66890</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58523</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16287</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33722</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9569</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17420</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>114495</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>113343</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>76459</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75943</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>93830; 100030</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>75485; 80435</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>64858; 66890</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56558; 58523</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14360; 16287</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>31712; 33722</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7776; 9569</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15626; 17839</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>110606; 116316</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>110013; 114156</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>74425; 76459</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>74141; 76362</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>199813</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>118254</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>135948</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>131503</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>49946</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67955</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>84077</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>103297</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>249759</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>186208</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>220025</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>234800</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>195742; 200829</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>116316; 118254</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>132128; 136869</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>127087; 133218</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48073; 49946</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65922; 67955</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>82089; 84077</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>99486; 105043</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>245689; 250775</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>184223; 186208</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>216353; 220946</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>229187; 237346</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>62991</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40004</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>68112</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>51170</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>65623</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43668</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>46212</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>127247</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>128614</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>83672</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>114324</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>178416</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>58629; 64009</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>37940; 40004</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>64104; 69095</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>49510; 51170</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63660; 65623</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>41583; 43668</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>42253; 47324</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>125540; 127247</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>125083; 129632</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>81563; 83672</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>109826; 116419</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>176713; 178416</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>468450</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>330639</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>346111</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>336809</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>215186</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>348677</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>688572</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>546466</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>561297</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>685486</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>463283; 471292</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>326996; 331452</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>341162; 349046</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>332373; 338806</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>218166; 220121</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>213747; 215828</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>210200; 216298</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>344224; 350937</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>682580; 691449</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>542649; 547279</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>554297; 564443</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>679828; 688904</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P69_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
